--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>
@@ -571,9 +576,6 @@
     <t>January-2018</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\Statutory scenarios for 201718\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
-  </si>
-  <si>
     <t>Payroll Suite StatutoryMaternityPay201718.xlsx</t>
   </si>
   <si>
@@ -590,14 +592,16 @@
   </si>
   <si>
     <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +726,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -769,7 +776,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -802,9 +809,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,6 +861,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1015,19 +1056,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.26083984375" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1055,7 +1096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1069,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1080,7 +1121,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1094,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -1108,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1125,7 +1166,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -1139,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -1153,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -1167,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -1181,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -1195,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -1209,7 +1250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -1223,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -1237,7 +1278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -1251,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -1265,7 +1306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -1279,7 +1320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -1293,7 +1334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -1316,26 +1357,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -1367,7 +1408,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1379,9 +1420,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
@@ -1394,13 +1435,13 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>158</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>164</v>
@@ -1424,26 +1465,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -1475,7 +1516,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1487,9 +1528,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
@@ -1504,13 +1545,13 @@
         <v>178</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>154</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>165</v>
@@ -1519,7 +1560,7 @@
         <v>156</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1534,24 +1575,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -1583,7 +1624,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1595,9 +1636,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
@@ -1612,13 +1653,13 @@
         <v>179</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>154</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>166</v>
@@ -1627,7 +1668,7 @@
         <v>156</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1643,26 +1684,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -1694,7 +1735,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1706,9 +1747,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
@@ -1723,13 +1764,13 @@
         <v>180</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>154</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>167</v>
@@ -1738,7 +1779,7 @@
         <v>156</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1753,17 +1794,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1783,7 +1824,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -1811,20 +1852,20 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2015,7 +2056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>102</v>
       </c>
@@ -2202,8 +2243,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId11"/>
-    <hyperlink ref="D2" r:id="rId12"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2217,14 +2258,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2250,7 +2291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -2279,17 +2320,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2306,7 +2347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -2327,27 +2368,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -2379,7 +2420,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2391,9 +2432,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
@@ -2408,13 +2449,13 @@
         <v>173</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>161</v>
@@ -2431,7 +2472,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId7" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8HTEA0"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8HTEA0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2442,25 +2483,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="10.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -2492,7 +2533,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2504,9 +2545,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
@@ -2521,13 +2562,13 @@
         <v>175</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>162</v>
@@ -2551,26 +2592,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -2602,7 +2643,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2614,9 +2655,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
@@ -2631,13 +2672,13 @@
         <v>176</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>163</v>
@@ -2665,18 +2706,18 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2714,12 +2755,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>143</v>
@@ -2734,7 +2775,7 @@
         <v>177</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>169</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
     <t>01/26/2018</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2368,7 +2368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
     <sheet name="ProcessPayrollForDecMonthSMP" sheetId="12" r:id="rId12"/>
     <sheet name="ProcessPayrollForJan2016MontSMP" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -555,9 +550,6 @@
     <t>April-2017</t>
   </si>
   <si>
-    <t>Monthly_Payroll</t>
-  </si>
-  <si>
     <t>May-2017</t>
   </si>
   <si>
@@ -579,9 +571,6 @@
     <t>Payroll Suite StatutoryMaternityPay201718.xlsx</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
     <t>2017</t>
   </si>
   <si>
@@ -594,13 +583,19 @@
     <t>01/26/2018</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
+    <t>DONT TOUCH AUTO DIRSMP EMPLOYER</t>
+  </si>
+  <si>
+    <t>DIRSMP_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_StatutoryScenarios 201718\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,7 +664,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -714,6 +709,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -776,7 +772,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -809,26 +805,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,23 +840,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1056,19 +1018,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1110,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1166,7 +1128,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -1194,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -1208,7 +1170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -1222,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -1236,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -1250,7 +1212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -1264,7 +1226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -1278,7 +1240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -1292,7 +1254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -1306,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -1320,7 +1282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -1334,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -1357,26 +1319,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -1408,7 +1370,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1420,22 +1382,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>182</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>174</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>158</v>
@@ -1457,6 +1419,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1465,26 +1430,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -1516,7 +1481,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1528,24 +1493,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>182</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>174</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>154</v>
@@ -1560,13 +1525,16 @@
         <v>156</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1575,24 +1543,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -1624,7 +1592,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1636,24 +1604,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>182</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>174</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>154</v>
@@ -1668,15 +1636,18 @@
         <v>156</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1684,26 +1655,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.109375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -1735,7 +1706,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1747,24 +1718,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>182</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>174</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>181</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>154</v>
@@ -1779,13 +1750,16 @@
         <v>156</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1794,17 +1768,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="17.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1849,19 +1823,19 @@
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.33203125" customWidth="1" collapsed="1"/>
     <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -2254,18 +2228,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2320,17 +2294,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2347,7 +2321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -2368,27 +2342,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -2420,7 +2394,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2432,15 +2406,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>182</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>174</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>97</v>
@@ -2449,7 +2423,7 @@
         <v>173</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>157</v>
@@ -2472,7 +2446,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8HTEA0"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2483,25 +2457,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -2533,7 +2507,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2545,24 +2519,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>182</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>174</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>157</v>
@@ -2584,6 +2558,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2592,26 +2569,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.5546875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -2643,7 +2620,7 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2655,24 +2632,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>182</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>174</v>
+      <c r="C2" t="s">
+        <v>186</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>157</v>
@@ -2694,6 +2671,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2702,19 +2682,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2760,22 +2740,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>143</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>169</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -4,29 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="15" r:id="rId2"/>
-    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
-    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
-    <sheet name="ProcessPayrollForAprilMonthSMP" sheetId="7" r:id="rId6"/>
-    <sheet name="ProcessPayrollForMayMonthSMP" sheetId="8" r:id="rId7"/>
-    <sheet name="ProcessPayrollForJuneMonthSMP" sheetId="9" r:id="rId8"/>
-    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId9"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="14" r:id="rId10"/>
-    <sheet name="ProcessPayrollForNovMonthSMP" sheetId="11" r:id="rId11"/>
-    <sheet name="ProcessPayrollForDecMonthSMP" sheetId="12" r:id="rId12"/>
-    <sheet name="ProcessPayrollForJan2016MontSMP" sheetId="13" r:id="rId13"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="15"/>
+    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
+    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
+    <sheet name="ProcessPayrollForAprilMonthSMP" r:id="rId6" sheetId="7"/>
+    <sheet name="ProcessPayrollForMayMonthSMP" r:id="rId7" sheetId="8"/>
+    <sheet name="ProcessPayrollForJuneMonthSMP" r:id="rId8" sheetId="9"/>
+    <sheet name="CreateLeaveRequest" r:id="rId9" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="14"/>
+    <sheet name="ProcessPayrollForNovMonthSMP" r:id="rId11" sheetId="11"/>
+    <sheet name="ProcessPayrollForDecMonthSMP" r:id="rId12" sheetId="12"/>
+    <sheet name="ProcessPayrollForJan2016MontSMP" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>
@@ -596,6 +596,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -660,64 +661,64 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -734,10 +735,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -895,7 +896,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -904,13 +905,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -920,7 +921,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -929,7 +930,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -938,7 +939,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -948,12 +949,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -984,7 +985,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1003,7 +1004,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1015,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1024,13 +1025,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -1311,12 +1312,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -1325,20 +1326,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="84.6" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -1420,14 +1421,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -1436,20 +1437,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="73.95" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -1533,14 +1534,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1549,18 +1550,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="58.95" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -1644,15 +1645,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1661,20 +1662,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="93.6" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -1758,14 +1759,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1774,11 +1775,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="17.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -1813,13 +1814,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1828,15 +1829,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -2217,15 +2218,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2234,12 +2235,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -2286,12 +2287,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2300,11 +2301,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.399999999999999" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -2333,13 +2334,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2348,21 +2349,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="60" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -2446,15 +2447,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2463,19 +2464,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -2519,7 +2520,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="69.599999999999994" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -2559,14 +2560,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2575,20 +2576,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="60" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
@@ -2672,14 +2673,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2688,13 +2689,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2771,7 +2772,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201718.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="188">
   <si>
     <t>TC</t>
   </si>
